--- a/rest api 명세.xlsx
+++ b/rest api 명세.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\TheBoxer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ADF7EB-48DC-4A2F-8E03-D7236CCEE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="유저 및 관리자" sheetId="3" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="예외사항" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'게시판, 피드, 댓글 등'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'게시판, 피드, 댓글 등'!$A$1:$N$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'유저 및 관리자'!$A$1:$N$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">제품!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="566">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2245,18 +2239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팔로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2272,112 +2254,728 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"정상적인 요청이 아닙니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /api/board/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "존재하지 않는 ID입니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBoardByTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/title/{title}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"존재하지 않는 제목입니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/delete/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "존재하지 않는 ID입니다"
-"본인이 작성한 게시판에 대해서만 삭제가 가능합니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "제목 및 내용은 필수 입력사항입니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "존재하지 않는 ID입니다"
-"본인이 작성한 게시판에 대해서만 수정이 가능합니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id를 통한 게시판 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신순 기준으로 게시판 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBoardByRecentDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/recent-date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBoardByRating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점순 기준으로 게시판 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/board/rating</t>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>캘린더</t>
+  </si>
+  <si>
+    <t>캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그히스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유저   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더에 다수의 일정 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더의 다수 일정 한번에 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ap/calendar/for-us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다수 캘린더 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+  </si>
+  <si>
+    <t>deleteCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteMultipleCalendars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCalendarsOfUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 캘린더를 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyMultipleCalendars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag-history/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그
+히스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">POST </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag/recommendations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag-history/{userName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag-history/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "title": "첫 데이트",
+  "startDate": "2025-03-23"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "title": "새로운 첫 데이트",
+  "startDate": "2025-03-25"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "title": "새로운 첫 데이트",
+  "startDate": "2025-03-26"
+},{
+  "title": "새로운 첫 나들이",
+  "startDate": "2025-03-28"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "tagName"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag/update/{tagName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag-history/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"newName":"newTagName"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 생성 (관리자만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 추천 (유저가 피드 생성 후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 수정
+유저가 피드를 수정할 때 태그를 수정 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tag/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 태그 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/{userName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 유저 조회(관리자만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 등록(회원가입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 등록한 자신의 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/now-on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "following": "user2"  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/{userName}/following</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/{userName}/followers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저를 팔로우하는 모든 유저의 목록을 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저가 팔로우하는 모든 유저의 목록을 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저가 다른 유저를 팔로우하는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우된 관계를 삭제하여 팔로우를 취소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저가 다른 유저를 팔로우하는 요청을 처리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasFollowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMultipleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFollowingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFollowersList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTagHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 태그 히스토리를 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTagHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의 태그 히스토리를 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTagHistoryByUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteTagHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 태그 히스토리를 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저의 태그 히스토리를 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userName": "john_doe",
+    "password": "securepassword123",
+    "realNameM": "John",
+    "realNameF": "Jane",
+    "emailM": "john@example.com",
+    "emailF": "jane@example.com",
+    "phoneNumberM": "01012345678",
+    "phoneNumberF": "01087654321",
+    "calendarDate": "2025-03-23"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"팔로우가 성공적으로 추가되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"잘못된 요청입니다.",
+"존재하지 않는 유저입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"팔로우 취소가 완료되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"팔로우한 유저가 없습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"팔로우 관계가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+ "팔로우 상태를 확인할 수 없습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"user4, user5님이 팔로우 중입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"user1, user2, user3님을 팔로우 중입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"캘린더가 성공적으로 추가되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"팔로워가 없습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "title": "첫 데이트",
+    "startDate": "2025-03-23"
+  },
+  {
+    "title": "첫 나들이",
+    "startDate": "2025-03-27"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다수의 캘린더가 성공적으로 추가되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"제목과 시작일을 입력해주세요."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"잘못된 데이터 형식입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"캘린더가 성공적으로 수정되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"캘린더가 성공적으로 삭제되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"삭제할 캘린더가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그가 성공적으로 생성되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그 이름을 입력해주세요."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"잘못된 데이터 형식입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"태그 추천에 실패했습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 성공적으로 등록되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"필수 정보를 모두 입력해주세요.",
+"이미 등록된 유저입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저 정보가 성공적으로 수정되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "password": "newpassword123",  
+    "realNameM": "Johnathan",  
+    "realNameF": "Janet",  
+    "emailM": "johnathan@example.com",  
+    "emailF": "janet@example.com", 
+    "phoneNumberM": "01098765432", 
+    "phoneNumberF": "01023456789", 
+    "calendarDate": "2025-03-24"  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"추천 태그 : tag1, tag2, tag3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"팔로우 중입니다",
+"팔로우를 하지 않습니다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/follow/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userName" : "blue"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/add-multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/modify-multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다수의 캘린더가 성공적으로 수정되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"수정할 캘린더가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"삭제할 캘린더가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/calendar/deleteMultiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다수의 캘린더가 성공적으로 삭제되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저의 캘린더가 성공적으로 조회되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"캘린더가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그가 성공적으로 수정되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모든 태그가 성공적으로 조회되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그가 존재하지 않습니다.",
+"새로운 태그 이름을 입력해주세요."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"태그 조회에 실패했습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그 히스토리가 성공적으로 생성되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그명을 모두 입력해주세요.",
+"유저 또는 태그가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"수정할 태그 히스토리가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+      "tagName": "tag1",
+      "usedTime": "2025-03-23"
+    },
+    {
+      "tagName": "tag2",
+      "usedTime": "2025-03-24"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다.",
+"태그 히스토리가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"태그 히스토리가 성공적으로 삭제되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"삭제할 태그 히스토리가 존재하지 않습니다.",
+"유저 또는 태그가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자만 유저 목록을 조회할 수 있습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+      "userName": "john_doe",
+      "realNameM": "John",
+      "realNameF": "Jane",
+      "emailM": "john@example.com",
+      "emailF": "jane@example.com",
+      "phoneNumberM": "01012345678",
+      "phoneNumberF": "01087654321",
+      "addDate": "2025-03-23"
+    },
+    {
+      "userName": "alice_smith",
+      "realNameM": "Alice",
+      "realNameF": "Smith",
+      "emailM": "alice@example.com",
+      "emailF": "smith@example.com",
+      "phoneNumberM": "01022223333",
+      "phoneNumberF": "01044445555",
+      "addDate": "2025-03-21"
+    }
+  ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저를 찾을 수 없습니다.",
+"잘못된 데이터 형식입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 성공적으로 삭제되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"삭제할 유저가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유저가 존재하지 않습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userName": "john_doe",
+  "realNameM": "John",
+  "realNameF": "Jane",
+  "emailM": "john@example.com",
+  "emailF": "jane@example.com",
+  "phoneNumberM": "01012345678",
+  "phoneNumberF": "01087654321",
+  "addDate": "2025-03-23",
+  "calendarDate": "2025-03-23"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2490,7 +3088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2815,13 +3413,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2891,6 +3546,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,230 +3783,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3188,7 +3876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3223,7 +3911,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3400,520 +4088,520 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="A18:I19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="32" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="71.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="61.75" style="32" customWidth="1"/>
-    <col min="9" max="9" width="62.875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="31" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="31"/>
-    <col min="13" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="12.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="71.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="61.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="62.875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="23"/>
+    <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="48" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="65" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="94" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="95" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="68"/>
-    </row>
-    <row r="4" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="44" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="95" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="68"/>
-    </row>
-    <row r="5" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="95" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="44" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12" s="27" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="55" t="s">
         <v>408</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="96" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="76" t="s">
         <v>409</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="95" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="55"/>
-    </row>
-    <row r="10" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="41" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="55"/>
-    </row>
-    <row r="11" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="41" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="55"/>
-    </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="41" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="55"/>
-    </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="41" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="88"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="55"/>
-    </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="89"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="98" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="61"/>
-    </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="41" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="55"/>
-    </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="93"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="98" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="71" t="s">
         <v>382</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="68"/>
-    </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="79" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="98" t="s">
+      <c r="G19" s="47"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="78" t="s">
         <v>386</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="61"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N19"/>
   <mergeCells count="4">
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A2:A7"/>
@@ -3926,567 +4614,866 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C3224F-B540-4F9A-B62A-87D1419B5F92}">
-  <dimension ref="A1:M58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="32" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="71.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="62.875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="31" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="31"/>
-    <col min="13" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="12.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="24" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="71.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="48" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:17" s="40" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="65" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+    <row r="2" spans="1:17" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="68"/>
-    </row>
-    <row r="4" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="68"/>
-    </row>
-    <row r="5" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="3" spans="1:17" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="104"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>514</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="1:17" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" s="27" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="86"/>
+    </row>
+    <row r="6" spans="1:17" s="27" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="105"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="104"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="104"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="104"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83" t="s">
+        <v>545</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>526</v>
+      </c>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="105"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:17" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="107"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:17" s="29" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="107"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>548</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+    </row>
+    <row r="17" spans="1:13" s="29" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="108"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="78" t="s">
+        <v>549</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>501</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="77" t="s">
+        <v>552</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>553</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="109"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>461</v>
+      </c>
+      <c r="G19" s="81"/>
+      <c r="H19" s="84" t="s">
+        <v>554</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>523</v>
+      </c>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="86"/>
+    </row>
+    <row r="20" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="109"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="H20" s="112" t="s">
+        <v>555</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>556</v>
+      </c>
+      <c r="J20" s="81"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+    </row>
+    <row r="21" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="111"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83" t="s">
+        <v>557</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+    </row>
+    <row r="22" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="102" t="s">
+        <v>560</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="104"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>479</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="104"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>480</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>534</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="I24" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="104"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>481</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83" t="s">
+        <v>562</v>
+      </c>
+      <c r="I25" s="84" t="s">
+        <v>563</v>
+      </c>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:13" s="29" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="105"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="29" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A29" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="B29" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44" t="s">
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="68"/>
-    </row>
-    <row r="11" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="68"/>
-    </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="68"/>
-    </row>
-    <row r="13" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="68"/>
-    </row>
-    <row r="15" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>434</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>369</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="97" t="s">
-        <v>431</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="88"/>
-    </row>
-    <row r="16" spans="1:12" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:13" s="35" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="68"/>
-    </row>
-    <row r="19" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="55"/>
-    </row>
-    <row r="20" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="55"/>
-    </row>
-    <row r="21" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="55"/>
-    </row>
-    <row r="23" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" spans="1:13" s="37" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="61"/>
-    </row>
-    <row r="31" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
       <c r="B31" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>18</v>
+      <c r="I31" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>215</v>
@@ -4498,32 +5485,30 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="6" t="s">
-        <v>168</v>
-      </c>
+    <row r="32" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="97"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I32" s="34" t="s">
-        <v>101</v>
+      <c r="I32" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>215</v>
@@ -4535,32 +5520,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:13" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:13" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="97"/>
       <c r="B33" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="H33" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I33" s="34" t="s">
-        <v>19</v>
+      <c r="I33" s="26" t="s">
+        <v>318</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>215</v>
@@ -4572,30 +5559,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="6"/>
+    <row r="34" spans="1:13" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="C34" s="6" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I34" s="34" t="s">
-        <v>220</v>
+      <c r="I34" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>215</v>
@@ -4607,34 +5598,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A35" s="97"/>
       <c r="B35" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>162</v>
+        <v>102</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I35" s="34" t="s">
-        <v>318</v>
+      <c r="I35" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>215</v>
@@ -4646,34 +5637,32 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:13" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>20</v>
-      </c>
+    <row r="36" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A36" s="97"/>
       <c r="B36" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I36" s="34" t="s">
-        <v>222</v>
+      <c r="I36" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>215</v>
@@ -4685,34 +5674,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+    <row r="37" spans="1:13" customFormat="1" ht="165" x14ac:dyDescent="0.3">
+      <c r="A37" s="97"/>
       <c r="B37" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>221</v>
+      <c r="I37" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>215</v>
@@ -4724,32 +5713,30 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:13" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="6" t="s">
-        <v>169</v>
-      </c>
+    <row r="38" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="97"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>235</v>
+        <v>26</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I38" s="34" t="s">
-        <v>221</v>
+      <c r="I38" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>215</v>
@@ -4761,34 +5748,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:13" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>224</v>
+    <row r="39" spans="1:13" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I39" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>223</v>
+      <c r="I39" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>215</v>
@@ -4800,30 +5787,32 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>243</v>
+    <row r="40" spans="1:13" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="95"/>
+      <c r="B40" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I40" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>24</v>
+      <c r="I40" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>215</v>
@@ -4835,34 +5824,32 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:13" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>60</v>
-      </c>
+    <row r="41" spans="1:13" customFormat="1" ht="165" x14ac:dyDescent="0.3">
+      <c r="A41" s="95"/>
       <c r="B41" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I41" s="100" t="s">
-        <v>75</v>
+      <c r="I41" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>215</v>
@@ -4875,31 +5862,31 @@
       </c>
     </row>
     <row r="42" spans="1:13" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>61</v>
+      <c r="A42" s="95"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>320</v>
+      </c>
       <c r="H42" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I42" s="100" t="s">
-        <v>124</v>
+      <c r="I42" s="79" t="s">
+        <v>321</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>215</v>
@@ -4911,32 +5898,30 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:13" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>125</v>
+    <row r="43" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="96"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I43" s="100" t="s">
-        <v>230</v>
+      <c r="I43" s="73" t="s">
+        <v>77</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>215</v>
@@ -4948,149 +5933,78 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:13" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I45" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>215</v>
-      </c>
+    <row r="44" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="1"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="1"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H50" s="1"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="27"/>
     </row>
     <row r="52" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H52" s="1"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="27"/>
     </row>
     <row r="53" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H53" s="1"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H54" s="1"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H55" s="1"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H56" s="1"/>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H57" s="1"/>
-      <c r="I57" s="35"/>
-    </row>
-    <row r="58" spans="8:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H58" s="1"/>
-      <c r="I58" s="35"/>
+      <c r="I56" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N26"/>
   <mergeCells count="8">
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5142,7 +6056,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="98" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5175,7 +6089,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="297" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="6" t="s">
         <v>183</v>
       </c>
@@ -5206,7 +6120,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="6" t="s">
         <v>184</v>
       </c>
@@ -5237,7 +6151,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="6" t="s">
         <v>185</v>
       </c>
@@ -5270,7 +6184,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="6" t="s">
         <v>186</v>
       </c>
@@ -5303,7 +6217,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="6" t="s">
         <v>187</v>
       </c>
@@ -5334,7 +6248,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="6" t="s">
         <v>188</v>
       </c>
@@ -5365,7 +6279,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="6" t="s">
         <v>189</v>
       </c>
@@ -5396,7 +6310,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="6" t="s">
         <v>190</v>
       </c>
@@ -5427,7 +6341,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="6" t="s">
         <v>191</v>
       </c>
@@ -5458,7 +6372,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="94" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5491,7 +6405,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="6" t="s">
         <v>193</v>
       </c>
@@ -5522,7 +6436,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="6" t="s">
         <v>194</v>
       </c>
@@ -5555,7 +6469,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="6" t="s">
         <v>195</v>
       </c>
@@ -5586,7 +6500,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="94" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -5619,7 +6533,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="6" t="s">
         <v>197</v>
       </c>
@@ -5650,7 +6564,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="6" t="s">
         <v>198</v>
       </c>
@@ -5683,7 +6597,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="6" t="s">
         <v>199</v>
       </c>
@@ -5714,7 +6628,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:K19"/>
   <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -5729,11 +6643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5831,7 +6745,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="94" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5870,7 +6784,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -5907,7 +6821,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
@@ -5944,7 +6858,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="4" t="s">
         <v>173</v>
       </c>
@@ -5981,7 +6895,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="363" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
@@ -6020,7 +6934,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>180</v>
@@ -6055,7 +6969,7 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="6" t="s">
         <v>210</v>
       </c>
@@ -6092,7 +7006,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="94" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="4"/>
@@ -6129,7 +7043,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>293</v>
@@ -6164,7 +7078,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>294</v>
@@ -6199,7 +7113,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>213</v>
@@ -6236,7 +7150,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>214</v>
@@ -6273,7 +7187,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="101" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6312,7 +7226,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="4" t="s">
         <v>166</v>
       </c>
@@ -6349,7 +7263,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="4" t="s">
         <v>166</v>
       </c>
@@ -6427,7 +7341,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:M18"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A14"/>
@@ -6440,7 +7354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
